--- a/ski_resort_data.xlsx
+++ b/ski_resort_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a90b1d0dba7937b6/Desktop/Documents/ski_sandbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a90b1d0dba7937b6/Desktop/Documents/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83796129-8A89-471C-B590-48ECD1F39E68}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1DE339-5EFD-4122-A0A9-58E7641448FD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,54 +248,6 @@
     <t>terrain_acres</t>
   </si>
   <si>
-    <t>ski_logos/snowshow_logo.jpg</t>
-  </si>
-  <si>
-    <t>ski_logos/Seven_Springs_Logo.jpg</t>
-  </si>
-  <si>
-    <t>ski_logos/WispLogo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/whitetail_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/liberty_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/massanutten_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/wintergreen_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/timberline_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/canaan_valley_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/bryce_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/roundtop_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/camelback_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/jfbb_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/blue_knob_logo.png</t>
-  </si>
-  <si>
-    <t>ski_logos/laurel_logo.jpg</t>
-  </si>
-  <si>
-    <t>ski_logos/hidden_valley_logo.jpg</t>
-  </si>
-  <si>
     <t>beginner_pct</t>
   </si>
   <si>
@@ -306,6 +258,54 @@
   </si>
   <si>
     <t>IND</t>
+  </si>
+  <si>
+    <t>./ski_logos/snowshow_logo.jpg</t>
+  </si>
+  <si>
+    <t>./ski_logos/Seven_Springs_Logo.jpg</t>
+  </si>
+  <si>
+    <t>./ski_logos/WispLogo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/whitetail_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/liberty_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/massanutten_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/wintergreen_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/timberline_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/canaan_valley_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/bryce_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/roundtop_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/camelback_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/jfbb_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/blue_knob_logo.png</t>
+  </si>
+  <si>
+    <t>./ski_logos/laurel_logo.jpg</t>
+  </si>
+  <si>
+    <t>./ski_logos/hidden_valley_logo.jpg</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,13 +690,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>67</v>
@@ -782,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>3.5</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>23</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1074,10 +1074,10 @@
         <v>2.5</v>
       </c>
       <c r="R7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
         <v>2.5</v>
       </c>
       <c r="R8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
         <v>3.5</v>
       </c>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>3.5</v>
       </c>
       <c r="R10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1310,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>18</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1546,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="R15" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>23</v>
       </c>
       <c r="S17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/ski_resort_data.xlsx
+++ b/ski_resort_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a90b1d0dba7937b6/Desktop/Documents/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1DE339-5EFD-4122-A0A9-58E7641448FD}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7795489A-6A3D-4586-83B2-FD5CEB723C63}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,59 +260,59 @@
     <t>IND</t>
   </si>
   <si>
-    <t>./ski_logos/snowshow_logo.jpg</t>
-  </si>
-  <si>
-    <t>./ski_logos/Seven_Springs_Logo.jpg</t>
-  </si>
-  <si>
-    <t>./ski_logos/WispLogo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/whitetail_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/liberty_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/massanutten_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/wintergreen_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/timberline_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/canaan_valley_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/bryce_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/roundtop_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/camelback_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/jfbb_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/blue_knob_logo.png</t>
-  </si>
-  <si>
-    <t>./ski_logos/laurel_logo.jpg</t>
-  </si>
-  <si>
-    <t>./ski_logos/hidden_valley_logo.jpg</t>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/snowshow_logo.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/Seven_Springs_Logo.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/WispLogo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/whitetail_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/liberty_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/wintergreen_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/massanutten_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/timberline_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/canaan_valley_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/bryce_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/roundtop_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/camelback_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/jfbb_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/blue_knob_logo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/laurel_logo.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/DABrianC/website/blob/main/ski_logos/hidden_valley_logo.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +324,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,17 +354,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,7 +673,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1088,7 @@
         <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1136,7 +1147,7 @@
         <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1430,7 +1441,7 @@
       <c r="R13" t="s">
         <v>18</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1607,7 +1618,7 @@
       <c r="R16" t="s">
         <v>23</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1671,7 +1682,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S13" r:id="rId1" xr:uid="{F8C8FEB1-488E-45D4-B983-72EA2B6D2D5D}"/>
+    <hyperlink ref="S16" r:id="rId2" xr:uid="{79D6C3B5-1CFE-4E84-AEEF-F697458ED18B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/ski_resort_data.xlsx
+++ b/ski_resort_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a90b1d0dba7937b6/Desktop/Documents/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7795489A-6A3D-4586-83B2-FD5CEB723C63}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA50B34-169B-41B7-BAD1-59FD7B335D8B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,52 +260,52 @@
     <t>IND</t>
   </si>
   <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/snowshow_logo.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/Seven_Springs_Logo.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/WispLogo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/whitetail_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/liberty_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/wintergreen_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/massanutten_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/timberline_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/canaan_valley_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/bryce_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/roundtop_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/camelback_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/jfbb_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/blue_knob_logo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/laurel_logo.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/DABrianC/website/blob/main/ski_logos/hidden_valley_logo.jpg</t>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/snowshow_logo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/Seven_Springs_Logo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/WispLogo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/whitetail_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/liberty_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/massanutten_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/wintergreen_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/timberline_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/canaan_valley_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/bryce_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/roundtop_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/camelback_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/jfbb_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/blue_knob_logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/laurel_logo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/hidden_valley_logo.jpg</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,7 +673,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="S3" sqref="S3:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
       <c r="R2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="R3" t="s">
         <v>23</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="R4" t="s">
         <v>74</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
       <c r="R5" t="s">
         <v>23</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       <c r="R6" t="s">
         <v>23</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1087,8 +1087,8 @@
       <c r="R7" t="s">
         <v>74</v>
       </c>
-      <c r="S7" t="s">
-        <v>81</v>
+      <c r="S7" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1146,8 +1146,8 @@
       <c r="R8" t="s">
         <v>74</v>
       </c>
-      <c r="S8" t="s">
-        <v>80</v>
+      <c r="S8" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
       <c r="R9" t="s">
         <v>74</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="R10" t="s">
         <v>74</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       <c r="R11" t="s">
         <v>74</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       <c r="R12" t="s">
         <v>23</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       <c r="R14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       <c r="R15" t="s">
         <v>74</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1677,16 +1677,30 @@
       <c r="R17" t="s">
         <v>23</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S13" r:id="rId1" xr:uid="{F8C8FEB1-488E-45D4-B983-72EA2B6D2D5D}"/>
-    <hyperlink ref="S16" r:id="rId2" xr:uid="{79D6C3B5-1CFE-4E84-AEEF-F697458ED18B}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{A1CB948A-C3B9-483E-9F85-6B2134569A0A}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{B1C1BFC5-9C5F-401F-8221-359D28176C01}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{3683CA3B-104E-4CD0-A4C8-7C3754CBBCEA}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{8C2F53AD-476A-4296-B6BC-C713DAA23431}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{17FB90E9-B113-45DD-B7D9-246DED754337}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{FBA0F170-0230-4D65-823B-DE0AE7CA7707}"/>
+    <hyperlink ref="S8" r:id="rId7" xr:uid="{DA10D6A4-E608-4C31-A8D8-ED7356040689}"/>
+    <hyperlink ref="S9" r:id="rId8" xr:uid="{F721C50E-933C-4E55-A999-07E85E3BC7F1}"/>
+    <hyperlink ref="S10" r:id="rId9" xr:uid="{CF55F28E-EA01-4A00-AE95-79EA6AA2290B}"/>
+    <hyperlink ref="S11" r:id="rId10" xr:uid="{BF58AFED-985D-4956-8A71-3A28585C5731}"/>
+    <hyperlink ref="S12" r:id="rId11" xr:uid="{ECC4E697-DF7B-4870-9FFF-A45E45DC5F98}"/>
+    <hyperlink ref="S13" r:id="rId12" xr:uid="{0DCABBE8-574B-48B8-B552-0A0271BAAF07}"/>
+    <hyperlink ref="S14" r:id="rId13" xr:uid="{D743CF5B-1874-4266-A69C-4A0694A528A9}"/>
+    <hyperlink ref="S15" r:id="rId14" xr:uid="{83CD7FAC-F6FD-4E1E-AE7E-B4F94B32E683}"/>
+    <hyperlink ref="S16" r:id="rId15" xr:uid="{66234263-4321-4B21-82BF-BF1C33DDC14A}"/>
+    <hyperlink ref="S17" r:id="rId16" xr:uid="{1F03FE91-6B98-402E-91C0-4D97F0E7CE0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
--- a/ski_resort_data.xlsx
+++ b/ski_resort_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a90b1d0dba7937b6/Desktop/Documents/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA50B34-169B-41B7-BAD1-59FD7B335D8B}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="11_85381FD58F79A8D366075C52F37BD2729A4B12E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6AE1BDC-0529-4BB3-90B7-E6F0B14BBB96}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -306,6 +306,30 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/hidden_valley_logo.jpg</t>
+  </si>
+  <si>
+    <t>Spring Mountain</t>
+  </si>
+  <si>
+    <t>Spring Mount</t>
+  </si>
+  <si>
+    <t>https://springmountainadventures.com/</t>
+  </si>
+  <si>
+    <t>Blue Mountain Resort</t>
+  </si>
+  <si>
+    <t>Palmerton</t>
+  </si>
+  <si>
+    <t>https://www.skibluemt.com/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/spring_mountain_logo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/DABrianC/website/main/ski_logos/blue_mountain_logo.jpg</t>
   </si>
 </sst>
 </file>
@@ -670,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,6 +1703,124 @@
       </c>
       <c r="S17" s="3" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E18">
+        <v>-75.45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>108</v>
+      </c>
+      <c r="N18">
+        <v>528</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>420</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>40.81</v>
+      </c>
+      <c r="E19">
+        <v>-75.52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19">
+        <v>164</v>
+      </c>
+      <c r="M19">
+        <v>325</v>
+      </c>
+      <c r="N19">
+        <v>1407</v>
+      </c>
+      <c r="O19">
+        <v>33</v>
+      </c>
+      <c r="P19">
+        <v>1082</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1699,8 +1841,10 @@
     <hyperlink ref="S15" r:id="rId14" xr:uid="{83CD7FAC-F6FD-4E1E-AE7E-B4F94B32E683}"/>
     <hyperlink ref="S16" r:id="rId15" xr:uid="{66234263-4321-4B21-82BF-BF1C33DDC14A}"/>
     <hyperlink ref="S17" r:id="rId16" xr:uid="{1F03FE91-6B98-402E-91C0-4D97F0E7CE0D}"/>
+    <hyperlink ref="S18" r:id="rId17" xr:uid="{1246C66B-A1F4-4C71-B878-6026BDF5CC63}"/>
+    <hyperlink ref="S19" r:id="rId18" xr:uid="{4B654226-6A33-4133-8709-AF2557BDC583}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>